--- a/Ecopulper/Shock/Ecopulpers.xlsx
+++ b/Ecopulper/Shock/Ecopulpers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\New Cases\Ecopulper\Shock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\Ecopulper\Shock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7603E99-08F2-4299-B1B9-46472D9F27D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6B5BD3-7572-4890-A51F-00E73B5DF0DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -790,7 +790,7 @@
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1133,6 +1133,9 @@
     <xf numFmtId="166" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1146,9 +1149,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="E2" s="54">
         <f>main!C34</f>
-        <v>-2.5504753816423371E-2</v>
+        <v>-2.5750672741101175E-4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="E3" s="55">
         <f>main!C31</f>
-        <v>1.9446613275375006E-2</v>
+        <v>1.9634119112903452E-4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1557,7 +1557,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C2" s="51">
         <f>main!C27</f>
-        <v>99.045000000000002</v>
+        <v>1.0000000000000113</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="C3" s="51">
         <f>main!C28</f>
-        <v>3.1949999999999998</v>
+        <v>3.2258064516129392E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1633,7 +1633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+    <sheetView zoomScale="113" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="G2" s="49">
         <f>-main!C29</f>
-        <v>-5.3915624999999997E-3</v>
+        <v>-5.4435483870968348E-5</v>
       </c>
       <c r="H2" s="49" t="s">
         <v>218</v>
@@ -1719,9 +1719,9 @@
       <c r="F3" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="G3" s="61">
+      <c r="G3" s="56">
         <f>main!C30</f>
-        <v>8.0667432846000004E-4</v>
+        <v>8.1445234838710602E-6</v>
       </c>
       <c r="H3" s="49" t="s">
         <v>218</v>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="G4" s="52">
         <f>main!C33</f>
-        <v>3.1949999999999998</v>
+        <v>3.2258064516129392E-2</v>
       </c>
       <c r="H4" s="49" t="s">
         <v>218</v>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="F2" s="51">
         <f>main!C32</f>
-        <v>9.9045000000000005</v>
+        <v>0.10000000000000113</v>
       </c>
       <c r="G2" s="51" t="s">
         <v>218</v>
@@ -2567,8 +2567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2619,7 +2619,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="60" t="s">
         <v>172</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -2642,7 +2642,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="13" t="s">
         <v>173</v>
       </c>
@@ -2661,7 +2661,7 @@
       <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="13" t="s">
         <v>236</v>
       </c>
@@ -2680,7 +2680,7 @@
       <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="13" t="s">
         <v>189</v>
       </c>
@@ -2699,7 +2699,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="60"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="33" t="s">
         <v>230</v>
       </c>
@@ -2720,7 +2720,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="13" t="s">
         <v>191</v>
       </c>
@@ -2737,7 +2737,7 @@
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="60"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="13" t="s">
         <v>194</v>
       </c>
@@ -2756,7 +2756,7 @@
       <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="13" t="s">
         <v>198</v>
       </c>
@@ -2775,7 +2775,7 @@
       <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="13" t="s">
         <v>201</v>
       </c>
@@ -2792,7 +2792,7 @@
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="60"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="13" t="s">
         <v>200</v>
       </c>
@@ -2811,7 +2811,7 @@
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="60"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="13" t="s">
         <v>207</v>
       </c>
@@ -2830,7 +2830,7 @@
       <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="60"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="13" t="s">
         <v>209</v>
       </c>
@@ -2849,7 +2849,7 @@
       <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="60"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="13" t="s">
         <v>210</v>
       </c>
@@ -2878,7 +2878,7 @@
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="60"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="13" t="s">
         <v>186</v>
       </c>
@@ -2895,7 +2895,7 @@
       <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="60"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="13" t="s">
         <v>224</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>223</v>
       </c>
       <c r="C17" s="40">
-        <v>639</v>
+        <v>6.4516129032258789</v>
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="38"/>
@@ -2933,7 +2933,7 @@
       <c r="K17" s="39"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="59" t="s">
         <v>180</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -2952,7 +2952,7 @@
       <c r="K18" s="17"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="12" t="s">
         <v>188</v>
       </c>
@@ -2969,7 +2969,7 @@
       <c r="K19" s="17"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="12" t="s">
         <v>221</v>
       </c>
@@ -2996,7 +2996,7 @@
       <c r="K20" s="17"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="58" t="s">
         <v>181</v>
       </c>
       <c r="B21" s="18" t="s">
@@ -3018,7 +3018,7 @@
       <c r="K21" s="19"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="57"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="25" t="s">
         <v>222</v>
       </c>
@@ -3036,13 +3036,13 @@
       <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="57"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="25" t="s">
         <v>185</v>
       </c>
       <c r="C23" s="30">
         <f>C20*C17/C22</f>
-        <v>5.3915624999999997E-3</v>
+        <v>5.4435483870968348E-5</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
@@ -3054,7 +3054,7 @@
       <c r="K23" s="19"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="57"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="18" t="s">
         <v>204</v>
       </c>
@@ -3074,13 +3074,13 @@
       <c r="K24" s="19"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="57"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="18" t="s">
         <v>229</v>
       </c>
       <c r="C25" s="27">
         <f>C24*C6*C17</f>
-        <v>19446.613275375006</v>
+        <v>196.34119112903451</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>233</v>
@@ -3094,13 +3094,13 @@
       <c r="K25" s="19"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="57"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="18" t="s">
         <v>206</v>
       </c>
       <c r="C26" s="27">
         <f>C24*3600/1000*C17/C12/C13*C14</f>
-        <v>806.67432846000008</v>
+        <v>8.1445234838710601</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>187</v>
@@ -3114,7 +3114,7 @@
       <c r="K26" s="19"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B27" s="15" t="s">
@@ -3122,7 +3122,7 @@
       </c>
       <c r="C27" s="22">
         <f>C17*C2/1000</f>
-        <v>99.045000000000002</v>
+        <v>1.0000000000000113</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>216</v>
@@ -3138,13 +3138,13 @@
       <c r="K27" s="16"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="56"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="15" t="s">
         <v>184</v>
       </c>
       <c r="C28" s="22">
         <f>C17*C3/1000</f>
-        <v>3.1949999999999998</v>
+        <v>3.2258064516129392E-2</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>216</v>
@@ -3160,13 +3160,13 @@
       <c r="K28" s="16"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="56"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="15" t="s">
         <v>185</v>
       </c>
       <c r="C29" s="32">
         <f>C23</f>
-        <v>5.3915624999999997E-3</v>
+        <v>5.4435483870968348E-5</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>227</v>
@@ -3182,13 +3182,13 @@
       <c r="K29" s="16"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="56"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="15" t="s">
         <v>192</v>
       </c>
       <c r="C30" s="26">
         <f>C26/1000000</f>
-        <v>8.0667432846000004E-4</v>
+        <v>8.1445234838710602E-6</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>216</v>
@@ -3204,13 +3204,13 @@
       <c r="K30" s="16"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="56"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="15" t="s">
         <v>228</v>
       </c>
       <c r="C31" s="26">
         <f>C25/(10^6)</f>
-        <v>1.9446613275375006E-2</v>
+        <v>1.9634119112903452E-4</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>197</v>
@@ -3226,13 +3226,13 @@
       <c r="K31" s="16"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="56"/>
+      <c r="A32" s="57"/>
       <c r="B32" s="15" t="s">
         <v>226</v>
       </c>
       <c r="C32" s="26">
         <f>C27/C16</f>
-        <v>9.9045000000000005</v>
+        <v>0.10000000000000113</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>216</v>
@@ -3248,13 +3248,13 @@
       <c r="K32" s="16"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="56"/>
+      <c r="A33" s="57"/>
       <c r="B33" s="15" t="s">
         <v>237</v>
       </c>
       <c r="C33" s="26">
         <f>C4*C17/1000</f>
-        <v>3.1949999999999998</v>
+        <v>3.2258064516129392E-2</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>216</v>
@@ -3270,13 +3270,13 @@
       <c r="K33" s="16"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="56"/>
+      <c r="A34" s="57"/>
       <c r="B34" s="15" t="s">
         <v>193</v>
       </c>
       <c r="C34" s="31">
         <f>C15*C7*C17/C22</f>
-        <v>-2.5504753816423371E-2</v>
+        <v>-2.5750672741101175E-4</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>227</v>
